--- a/Documentation/接口交互文档版本记录/数据统计接口.xlsx
+++ b/Documentation/接口交互文档版本记录/数据统计接口.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,94 @@
   </si>
   <si>
     <t>json类型，集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直方图：页面访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Histogram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferIdStr：晶圆主键拼接成的字符串，英文逗号分隔，首尾不能为逗号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rangList：参数以及对应的上下限；
+equal：等分；
+histogram：各个参数对应的直方图数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直方图：选择晶圆与参数绘制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱线图：页面访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boxplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱线图：选择晶圆与参数绘制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferIdStr：晶圆主键拼接成的字符串，英文逗号分隔，首尾不能为逗号；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferIdStr：晶圆主键拼接成的字符串，英文逗号分隔，首尾不能为逗号；
+leftRange：左范围；rightRange：右范围；
+equal：等分；parameter：参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferIdStr：晶圆主键拼接成的字符串，英文逗号分隔，首尾不能为逗号；
+parameter：参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramList：参数集合；
+boxPlot：各个参数对应的箱线图数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPKServlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPK：页面访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPK：选择晶圆与参数绘制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferId：晶圆主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramList：参数集合；
+CPKData：CPK绘图数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferId：晶圆主键；
+parameter：参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,6 +320,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -241,11 +335,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -578,14 +669,14 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -603,31 +694,129 @@
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="8"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="40.5">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentation/接口交互文档版本记录/数据统计接口.xlsx
+++ b/Documentation/接口交互文档版本记录/数据统计接口.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>直方图：页面访问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Histogram</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,21 +78,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rangList：参数以及对应的上下限；
-equal：等分；
-histogram：各个参数对应的直方图数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>直方图：选择晶圆与参数绘制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ajax请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>箱线图：页面访问</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -123,34 +105,105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>paramList：参数集合；
-boxPlot：各个参数对应的箱线图数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CPKServlet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CPK：页面访问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CPK：选择晶圆与参数绘制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>waferId：晶圆主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paramList：参数集合；
-CPKData：CPK绘图数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>waferId：晶圆主键；
 parameter：参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPK：初始加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直方图：初始加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱线图：初始加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关性：初始加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Correlation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferId：晶圆主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json类型，集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关性：选择两个参数绘制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferId：晶圆主键；
+paramX：横轴参数；minX：横轴参数范围下限；maxX:横轴参数范围上限；
+paramY：纵轴参数；minY：纵轴参数范围下限；maxY:纵轴参数范围上限；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶圆图：初始加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaferMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶圆图：选择晶圆选择参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferIdStr：晶圆主键拼接成的字符串，英文逗号分隔，首尾不能为逗号；
+parameter：参数；leftRange：范围下限；rightRange：范围上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高斯分布图：初始加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GaussianDistribution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高斯分布图：选择晶圆选择参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferId：晶圆主键
+parameter：参数；leftRange：范围下限；rightRange：范围上限；
+equal:等分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶圆参数与参数对应上下限范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParameterRange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,7 +248,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,6 +267,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -307,7 +366,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,8 +382,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -336,6 +395,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -632,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -679,7 +753,7 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -696,127 +770,255 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="40.5">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="E6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="3"/>
+      <c r="A8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>28</v>
+      <c r="A9" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentation/接口交互文档版本记录/数据统计接口.xlsx
+++ b/Documentation/接口交互文档版本记录/数据统计接口.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WaferMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>晶圆图：选择晶圆选择参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,6 +200,34 @@
   </si>
   <si>
     <t>ParameterRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColorMap</t>
+  </si>
+  <si>
+    <t>数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataStatistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferId：数组，晶圆主键
+waferNO：数组，晶圆编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端取参数：${datas}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +272,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,8 +297,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -360,13 +390,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -385,32 +426,44 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -743,282 +796,302 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="12" t="s">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
